--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CoC\Clash_Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\Clash_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAD6B50-2C0B-411A-9472-25F9FA29090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713A5526-BFCC-4FB1-8099-9DA2C4D49D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Angriffe" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
@@ -377,19 +377,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" style="4" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -409,7 +409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44882.052322847223</v>
       </c>
@@ -429,9 +429,9 @@
         <v>5872</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>44882.057733025598</v>
+        <v>44882.057733020833</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -447,6 +447,46 @@
       </c>
       <c r="F3">
         <v>7715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44882.381963749998</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>515340</v>
+      </c>
+      <c r="E4">
+        <v>793494</v>
+      </c>
+      <c r="F4">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44882.472736634998</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>193202</v>
+      </c>
+      <c r="E5">
+        <v>57778</v>
+      </c>
+      <c r="F5">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\Clash_Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CoC\Clash_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713A5526-BFCC-4FB1-8099-9DA2C4D49D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59399F5-0F32-4353-BC9B-EA9068D29107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Angriffe" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Win</t>
   </si>
   <si>
-    <t>Trophies</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t>Dark Elixir</t>
+  </si>
+  <si>
+    <t>Loose</t>
   </si>
 </sst>
 </file>
@@ -88,15 +88,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -377,19 +371,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="4" customWidth="1"/>
-    <col min="2" max="6" width="10" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="4" customWidth="1"/>
+    <col min="2" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -405,11 +399,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44882.052322847223</v>
       </c>
@@ -417,19 +408,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>564379</v>
       </c>
       <c r="D2">
-        <v>564379</v>
+        <v>711003</v>
       </c>
       <c r="E2">
-        <v>711003</v>
-      </c>
-      <c r="F2">
         <v>5872</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44882.057733020833</v>
       </c>
@@ -437,19 +425,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>986045</v>
       </c>
       <c r="D3">
-        <v>986045</v>
+        <v>990897</v>
       </c>
       <c r="E3">
-        <v>990897</v>
-      </c>
-      <c r="F3">
         <v>7715</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44882.381963749998</v>
       </c>
@@ -457,36 +442,47 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>515340</v>
       </c>
       <c r="D4">
-        <v>515340</v>
+        <v>793494</v>
       </c>
       <c r="E4">
-        <v>793494</v>
-      </c>
-      <c r="F4">
         <v>3093</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44882.472736634998</v>
+        <v>44882.472736631942</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>193202</v>
       </c>
       <c r="D5">
-        <v>193202</v>
+        <v>57778</v>
       </c>
       <c r="E5">
-        <v>57778</v>
-      </c>
-      <c r="F5">
         <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44882.809774211819</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>146830</v>
+      </c>
+      <c r="D6">
+        <v>739880</v>
+      </c>
+      <c r="E6">
+        <v>6660</v>
       </c>
     </row>
   </sheetData>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -1,73 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CoC\Clash_Bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59399F5-0F32-4353-BC9B-EA9068D29107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Angriffe" sheetId="1" r:id="rId1"/>
+    <sheet name="Angriffe" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Upgrades" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Win</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Elixir</t>
-  </si>
-  <si>
-    <t>Dark Elixir</t>
-  </si>
-  <si>
-    <t>Loose</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,26 +58,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,123 +403,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="4" customWidth="1"/>
-    <col min="2" max="5" width="10" customWidth="1"/>
+    <col width="19.5703125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10" customWidth="1" style="2" min="2" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Elixir</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dark Elixir</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>44882.05232284722</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>564379</v>
+      </c>
+      <c r="D2" t="n">
+        <v>711003</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>44882.05773302083</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>986045</v>
+      </c>
+      <c r="D3" t="n">
+        <v>990897</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>44882.38196375</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>515340</v>
+      </c>
+      <c r="D4" t="n">
+        <v>793494</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>44882.47273663194</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>193202</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57778</v>
+      </c>
+      <c r="E5" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>44882.80977421296</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Loose</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>146830</v>
+      </c>
+      <c r="D6" t="n">
+        <v>739880</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>44882.94157679398</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>270624</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51504</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>44882.94435831018</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>273764</v>
+      </c>
+      <c r="D8" t="n">
+        <v>223534</v>
+      </c>
+      <c r="E8" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>44882.95022396991</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Loose</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20826</v>
+      </c>
+      <c r="D9" t="n">
+        <v>232100</v>
+      </c>
+      <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44882.052322847223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>564379</v>
-      </c>
-      <c r="D2">
-        <v>711003</v>
-      </c>
-      <c r="E2">
-        <v>5872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>44882.057733020833</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>986045</v>
-      </c>
-      <c r="D3">
-        <v>990897</v>
-      </c>
-      <c r="E3">
-        <v>7715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44882.381963749998</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>515340</v>
-      </c>
-      <c r="D4">
-        <v>793494</v>
-      </c>
-      <c r="E4">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>44882.472736631942</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>193202</v>
-      </c>
-      <c r="D5">
-        <v>57778</v>
-      </c>
-      <c r="E5">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44882.809774211819</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>146830</v>
-      </c>
-      <c r="D6">
-        <v>739880</v>
-      </c>
-      <c r="E6">
-        <v>6660</v>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>44882.95326462963</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>171873</v>
+      </c>
+      <c r="D10" t="n">
+        <v>242089</v>
+      </c>
+      <c r="E10" t="n">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>44882.95849340278</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Loose</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>24280</v>
+      </c>
+      <c r="D11" t="n">
+        <v>66050</v>
+      </c>
+      <c r="E11" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>44882.96868947395</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>675415</v>
+      </c>
+      <c r="D12" t="n">
+        <v>272252</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>44882.97651234813</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>620318</v>
+      </c>
+      <c r="D13" t="n">
+        <v>560399</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>44882.98172839442</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>451999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>387121</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>44883.00205493784</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>429407</v>
+      </c>
+      <c r="D15" t="n">
+        <v>456883</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4858</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="23.5703125" customWidth="1" style="2" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Spent gold</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Spent elixir</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>44882.93601690972</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -408,7 +408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
@@ -639,7 +639,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>44882.96868947395</v>
+        <v>44882.96868947917</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>44882.97651234813</v>
+        <v>44882.97651234954</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>44882.98172839442</v>
+        <v>44882.98172839121</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>44883.00205493784</v>
+        <v>44883.00205494213</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -711,6 +711,196 @@
       </c>
       <c r="E15" t="n">
         <v>4858</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>44883.45454878472</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Loose</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>73519</v>
+      </c>
+      <c r="D16" t="n">
+        <v>121289</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>44883.45685784722</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>385078</v>
+      </c>
+      <c r="D17" t="n">
+        <v>70788</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16055</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>44883.58078407407</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>485980</v>
+      </c>
+      <c r="D18" t="n">
+        <v>489880</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>44883.58414079861</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>439014</v>
+      </c>
+      <c r="D19" t="n">
+        <v>644822</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>44883.59348135098</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>305795</v>
+      </c>
+      <c r="D20" t="n">
+        <v>477403</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>44883.59967854021</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>360756</v>
+      </c>
+      <c r="D21" t="n">
+        <v>324482</v>
+      </c>
+      <c r="E21" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>44883.60515069401</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Loose</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>171361</v>
+      </c>
+      <c r="D22" t="n">
+        <v>69366</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>44883.60771421987</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>268372</v>
+      </c>
+      <c r="D23" t="n">
+        <v>181784</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>44883.61313474643</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>441947</v>
+      </c>
+      <c r="D24" t="n">
+        <v>244706</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>44883.61734145215</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Loose</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>148813</v>
+      </c>
+      <c r="D25" t="n">
+        <v>85741</v>
+      </c>
+      <c r="E25" t="n">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -775,16 +965,196 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="4" t="n">
+        <v>44883.45843854167</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n"/>
+      <c r="A4" s="4" t="n">
+        <v>44883.45944780092</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n"/>
+      <c r="A5" s="4" t="n">
+        <v>44883.46045253472</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n"/>
+      <c r="A6" s="4" t="n">
+        <v>44883.56889099537</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2504000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>44883.58660917824</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-29700000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>44883.58737652778</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1631702</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>44883.59001580417</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>500002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>44883.59595931027</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>44883.59674807491</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>44883.60215879879</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1872000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>44883.6101882173</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>44883.61560464039</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>wall</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -408,13 +408,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="19.5703125" customWidth="1" style="2" min="1" max="1"/>
     <col width="10" customWidth="1" style="2" min="2" max="5"/>
@@ -791,7 +791,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>44883.59348135098</v>
+        <v>44883.59348135417</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>44883.59967854021</v>
+        <v>44883.59967854166</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>44883.60515069401</v>
+        <v>44883.60515069444</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>44883.60771421987</v>
+        <v>44883.60771422453</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>44883.61313474643</v>
+        <v>44883.61313474537</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>44883.61734145215</v>
+        <v>44883.61734144676</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -901,6 +901,25 @@
       </c>
       <c r="E25" t="n">
         <v>633</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>44886.84392736734</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>552369</v>
+      </c>
+      <c r="D26" t="n">
+        <v>387225</v>
+      </c>
+      <c r="E26" t="n">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +940,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col width="23.5703125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
@@ -1062,7 +1081,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>44883.59001580417</v>
+        <v>44883.59001579861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1078,7 +1097,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>44883.59595931027</v>
+        <v>44883.59595930555</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1094,7 +1113,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>44883.59674807491</v>
+        <v>44883.5967480787</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1110,7 +1129,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>44883.60215879879</v>
+        <v>44883.6021587963</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1126,7 +1145,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>44883.6101882173</v>
+        <v>44883.61018821759</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1142,7 +1161,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>44883.61560464039</v>
+        <v>44883.61560464121</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
